--- a/assets/excel/2022_5-2-1.xlsx
+++ b/assets/excel/2022_5-2-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Hannover\Dez15-Uebergreifende-Analysen\Projekte\Integrationsmonitoring\github\MT_Site\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49AA76A-A2B9-4C30-8098-86A8AB678951}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5035F76E-A715-4B2D-8D22-C27189D7BFDF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" xr2:uid="{D78F4DFF-A3F7-4D02-ACE9-C520BEFE96A8}"/>
   </bookViews>
@@ -26,12 +26,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="76">
-  <si>
-    <t>Indikator 5.2.2: Sozialversicherungspflichtig beschäftigte Ausländerinnen und Ausländer nach Art der Ausbildung</t>
-  </si>
-  <si>
-    <t>Tabelle 5.2.2: Sozialversicherungspflichtig Beschäftigte Ausländerinnen und Ausländer am Arbeitsort nach Qualifikation und Kreisen</t>
-  </si>
   <si>
     <t>AGS</t>
   </si>
@@ -268,6 +262,12 @@
   </si>
   <si>
     <t>Migration und Teilhabe in Niedersachsen - Integrationsmonitoring 2022</t>
+  </si>
+  <si>
+    <t>Indikator 5.2.1: Sozialversicherungspflichtig beschäftigte Ausländerinnen und Ausländer nach Art der Ausbildung</t>
+  </si>
+  <si>
+    <t>Tabelle 5.2.1: Sozialversicherungspflichtig Beschäftigte Ausländerinnen und Ausländer am Arbeitsort nach Qualifikation und Kreisen</t>
   </si>
 </sst>
 </file>
@@ -656,41 +656,12 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -725,10 +696,39 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1047,9 +1047,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12F353FB-E6B2-4122-8FD3-146998CA49AF}">
   <dimension ref="B1:CC72"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="W69" sqref="W69"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1062,13 +1060,13 @@
   <sheetData>
     <row r="1" spans="2:81" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="2:81" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:81" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="3" t="s">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
@@ -1106,7 +1104,7 @@
     </row>
     <row r="4" spans="2:81" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="R4" s="8"/>
       <c r="S4" s="8"/>
@@ -1291,604 +1289,604 @@
       <c r="BV6" s="9"/>
     </row>
     <row r="7" spans="2:81" x14ac:dyDescent="0.25">
-      <c r="B7" s="77" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="80" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" s="83">
+      <c r="B7" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="74">
         <v>2021</v>
       </c>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="84"/>
-      <c r="J7" s="85"/>
-      <c r="K7" s="83">
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="74">
         <v>2020</v>
       </c>
-      <c r="L7" s="84"/>
-      <c r="M7" s="84"/>
-      <c r="N7" s="84"/>
-      <c r="O7" s="84"/>
-      <c r="P7" s="84"/>
-      <c r="Q7" s="85"/>
-      <c r="R7" s="83">
+      <c r="L7" s="75"/>
+      <c r="M7" s="75"/>
+      <c r="N7" s="75"/>
+      <c r="O7" s="75"/>
+      <c r="P7" s="75"/>
+      <c r="Q7" s="76"/>
+      <c r="R7" s="74">
         <v>2019</v>
       </c>
-      <c r="S7" s="84"/>
-      <c r="T7" s="84"/>
-      <c r="U7" s="84"/>
-      <c r="V7" s="84"/>
-      <c r="W7" s="84"/>
-      <c r="X7" s="85"/>
-      <c r="Y7" s="83">
+      <c r="S7" s="75"/>
+      <c r="T7" s="75"/>
+      <c r="U7" s="75"/>
+      <c r="V7" s="75"/>
+      <c r="W7" s="75"/>
+      <c r="X7" s="76"/>
+      <c r="Y7" s="74">
         <v>2018</v>
       </c>
-      <c r="Z7" s="84"/>
-      <c r="AA7" s="84"/>
-      <c r="AB7" s="84"/>
-      <c r="AC7" s="84"/>
-      <c r="AD7" s="84"/>
-      <c r="AE7" s="85"/>
-      <c r="AF7" s="69">
+      <c r="Z7" s="75"/>
+      <c r="AA7" s="75"/>
+      <c r="AB7" s="75"/>
+      <c r="AC7" s="75"/>
+      <c r="AD7" s="75"/>
+      <c r="AE7" s="76"/>
+      <c r="AF7" s="65">
         <v>2017</v>
       </c>
-      <c r="AG7" s="75"/>
-      <c r="AH7" s="75"/>
-      <c r="AI7" s="75"/>
-      <c r="AJ7" s="75"/>
-      <c r="AK7" s="75"/>
-      <c r="AL7" s="76"/>
-      <c r="AM7" s="69">
+      <c r="AG7" s="66"/>
+      <c r="AH7" s="66"/>
+      <c r="AI7" s="66"/>
+      <c r="AJ7" s="66"/>
+      <c r="AK7" s="66"/>
+      <c r="AL7" s="67"/>
+      <c r="AM7" s="65">
         <v>2016</v>
       </c>
-      <c r="AN7" s="75"/>
-      <c r="AO7" s="75"/>
-      <c r="AP7" s="75"/>
-      <c r="AQ7" s="75"/>
-      <c r="AR7" s="75"/>
-      <c r="AS7" s="76"/>
-      <c r="AT7" s="69">
+      <c r="AN7" s="66"/>
+      <c r="AO7" s="66"/>
+      <c r="AP7" s="66"/>
+      <c r="AQ7" s="66"/>
+      <c r="AR7" s="66"/>
+      <c r="AS7" s="67"/>
+      <c r="AT7" s="65">
         <v>2015</v>
       </c>
-      <c r="AU7" s="75"/>
-      <c r="AV7" s="75"/>
-      <c r="AW7" s="75"/>
-      <c r="AX7" s="75"/>
-      <c r="AY7" s="75"/>
-      <c r="AZ7" s="76"/>
-      <c r="BA7" s="69">
+      <c r="AU7" s="66"/>
+      <c r="AV7" s="66"/>
+      <c r="AW7" s="66"/>
+      <c r="AX7" s="66"/>
+      <c r="AY7" s="66"/>
+      <c r="AZ7" s="67"/>
+      <c r="BA7" s="65">
         <v>2014</v>
       </c>
-      <c r="BB7" s="75"/>
-      <c r="BC7" s="75"/>
-      <c r="BD7" s="75"/>
-      <c r="BE7" s="75"/>
-      <c r="BF7" s="75"/>
-      <c r="BG7" s="76"/>
-      <c r="BH7" s="69">
+      <c r="BB7" s="66"/>
+      <c r="BC7" s="66"/>
+      <c r="BD7" s="66"/>
+      <c r="BE7" s="66"/>
+      <c r="BF7" s="66"/>
+      <c r="BG7" s="67"/>
+      <c r="BH7" s="65">
         <v>2013</v>
       </c>
-      <c r="BI7" s="75"/>
-      <c r="BJ7" s="75"/>
-      <c r="BK7" s="75"/>
-      <c r="BL7" s="75"/>
-      <c r="BM7" s="75"/>
-      <c r="BN7" s="76"/>
-      <c r="BO7" s="69">
+      <c r="BI7" s="66"/>
+      <c r="BJ7" s="66"/>
+      <c r="BK7" s="66"/>
+      <c r="BL7" s="66"/>
+      <c r="BM7" s="66"/>
+      <c r="BN7" s="67"/>
+      <c r="BO7" s="65">
         <v>2011</v>
       </c>
-      <c r="BP7" s="75"/>
-      <c r="BQ7" s="75"/>
-      <c r="BR7" s="75"/>
-      <c r="BS7" s="75"/>
-      <c r="BT7" s="75"/>
-      <c r="BU7" s="76"/>
-      <c r="BV7" s="68">
+      <c r="BP7" s="66"/>
+      <c r="BQ7" s="66"/>
+      <c r="BR7" s="66"/>
+      <c r="BS7" s="66"/>
+      <c r="BT7" s="66"/>
+      <c r="BU7" s="67"/>
+      <c r="BV7" s="86">
         <v>2010</v>
       </c>
-      <c r="BW7" s="68"/>
-      <c r="BX7" s="68"/>
-      <c r="BY7" s="68"/>
-      <c r="BZ7" s="68"/>
-      <c r="CA7" s="68"/>
-      <c r="CB7" s="69"/>
+      <c r="BW7" s="86"/>
+      <c r="BX7" s="86"/>
+      <c r="BY7" s="86"/>
+      <c r="BZ7" s="86"/>
+      <c r="CA7" s="86"/>
+      <c r="CB7" s="65"/>
       <c r="CC7" s="11"/>
     </row>
     <row r="8" spans="2:81" x14ac:dyDescent="0.25">
-      <c r="B8" s="78"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="70" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="71"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="70" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="70" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="71"/>
-      <c r="M8" s="72"/>
-      <c r="N8" s="70" t="s">
-        <v>4</v>
-      </c>
-      <c r="O8" s="71"/>
-      <c r="P8" s="71"/>
-      <c r="Q8" s="72"/>
-      <c r="R8" s="74" t="s">
-        <v>3</v>
-      </c>
-      <c r="S8" s="74"/>
-      <c r="T8" s="74"/>
-      <c r="U8" s="70" t="s">
-        <v>4</v>
-      </c>
-      <c r="V8" s="71"/>
-      <c r="W8" s="71"/>
-      <c r="X8" s="72"/>
-      <c r="Y8" s="74" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z8" s="74"/>
-      <c r="AA8" s="74"/>
-      <c r="AB8" s="70" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC8" s="71"/>
-      <c r="AD8" s="71"/>
-      <c r="AE8" s="72"/>
-      <c r="AF8" s="64" t="s">
-        <v>3</v>
-      </c>
-      <c r="AG8" s="64"/>
-      <c r="AH8" s="64"/>
-      <c r="AI8" s="65" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ8" s="66"/>
-      <c r="AK8" s="66"/>
-      <c r="AL8" s="63"/>
-      <c r="AM8" s="64" t="s">
-        <v>3</v>
-      </c>
-      <c r="AN8" s="64"/>
-      <c r="AO8" s="64"/>
-      <c r="AP8" s="65" t="s">
-        <v>4</v>
-      </c>
-      <c r="AQ8" s="66"/>
-      <c r="AR8" s="66"/>
-      <c r="AS8" s="63"/>
-      <c r="AT8" s="64" t="s">
-        <v>3</v>
-      </c>
-      <c r="AU8" s="64"/>
-      <c r="AV8" s="64"/>
-      <c r="AW8" s="65" t="s">
-        <v>4</v>
-      </c>
-      <c r="AX8" s="66"/>
-      <c r="AY8" s="66"/>
-      <c r="AZ8" s="63"/>
-      <c r="BA8" s="64" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB8" s="64"/>
-      <c r="BC8" s="64"/>
-      <c r="BD8" s="65" t="s">
-        <v>4</v>
-      </c>
-      <c r="BE8" s="66"/>
-      <c r="BF8" s="66"/>
-      <c r="BG8" s="63"/>
-      <c r="BH8" s="64" t="s">
-        <v>3</v>
-      </c>
-      <c r="BI8" s="64"/>
-      <c r="BJ8" s="64"/>
-      <c r="BK8" s="65" t="s">
-        <v>4</v>
-      </c>
-      <c r="BL8" s="66"/>
-      <c r="BM8" s="66"/>
-      <c r="BN8" s="63"/>
-      <c r="BO8" s="64" t="s">
-        <v>3</v>
-      </c>
-      <c r="BP8" s="64"/>
-      <c r="BQ8" s="64"/>
-      <c r="BR8" s="65" t="s">
-        <v>4</v>
-      </c>
-      <c r="BS8" s="66"/>
-      <c r="BT8" s="66"/>
-      <c r="BU8" s="63"/>
-      <c r="BV8" s="73" t="s">
-        <v>3</v>
-      </c>
-      <c r="BW8" s="73"/>
-      <c r="BX8" s="73"/>
-      <c r="BY8" s="65" t="s">
-        <v>4</v>
-      </c>
-      <c r="BZ8" s="66"/>
-      <c r="CA8" s="66"/>
-      <c r="CB8" s="66"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="78"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="77" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="78"/>
+      <c r="I8" s="78"/>
+      <c r="J8" s="79"/>
+      <c r="K8" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="L8" s="78"/>
+      <c r="M8" s="79"/>
+      <c r="N8" s="77" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="78"/>
+      <c r="P8" s="78"/>
+      <c r="Q8" s="79"/>
+      <c r="R8" s="80" t="s">
+        <v>1</v>
+      </c>
+      <c r="S8" s="80"/>
+      <c r="T8" s="80"/>
+      <c r="U8" s="77" t="s">
+        <v>2</v>
+      </c>
+      <c r="V8" s="78"/>
+      <c r="W8" s="78"/>
+      <c r="X8" s="79"/>
+      <c r="Y8" s="80" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="80"/>
+      <c r="AA8" s="80"/>
+      <c r="AB8" s="77" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC8" s="78"/>
+      <c r="AD8" s="78"/>
+      <c r="AE8" s="79"/>
+      <c r="AF8" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="81"/>
+      <c r="AH8" s="81"/>
+      <c r="AI8" s="82" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ8" s="83"/>
+      <c r="AK8" s="83"/>
+      <c r="AL8" s="84"/>
+      <c r="AM8" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN8" s="81"/>
+      <c r="AO8" s="81"/>
+      <c r="AP8" s="82" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ8" s="83"/>
+      <c r="AR8" s="83"/>
+      <c r="AS8" s="84"/>
+      <c r="AT8" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU8" s="81"/>
+      <c r="AV8" s="81"/>
+      <c r="AW8" s="82" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX8" s="83"/>
+      <c r="AY8" s="83"/>
+      <c r="AZ8" s="84"/>
+      <c r="BA8" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB8" s="81"/>
+      <c r="BC8" s="81"/>
+      <c r="BD8" s="82" t="s">
+        <v>2</v>
+      </c>
+      <c r="BE8" s="83"/>
+      <c r="BF8" s="83"/>
+      <c r="BG8" s="84"/>
+      <c r="BH8" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI8" s="81"/>
+      <c r="BJ8" s="81"/>
+      <c r="BK8" s="82" t="s">
+        <v>2</v>
+      </c>
+      <c r="BL8" s="83"/>
+      <c r="BM8" s="83"/>
+      <c r="BN8" s="84"/>
+      <c r="BO8" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP8" s="81"/>
+      <c r="BQ8" s="81"/>
+      <c r="BR8" s="82" t="s">
+        <v>2</v>
+      </c>
+      <c r="BS8" s="83"/>
+      <c r="BT8" s="83"/>
+      <c r="BU8" s="84"/>
+      <c r="BV8" s="87" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW8" s="87"/>
+      <c r="BX8" s="87"/>
+      <c r="BY8" s="82" t="s">
+        <v>2</v>
+      </c>
+      <c r="BZ8" s="83"/>
+      <c r="CA8" s="83"/>
+      <c r="CB8" s="83"/>
       <c r="CC8" s="9"/>
     </row>
     <row r="9" spans="2:81" x14ac:dyDescent="0.25">
-      <c r="B9" s="78"/>
-      <c r="C9" s="81"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="72"/>
       <c r="D9" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="G9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="H9" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="I9" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="J9" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>11</v>
-      </c>
       <c r="K9" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="L9" s="12" t="s">
+      <c r="N9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="M9" s="12" t="s">
+      <c r="O9" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="N9" s="12" t="s">
+      <c r="P9" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="O9" s="12" t="s">
+      <c r="Q9" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="P9" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q9" s="12" t="s">
-        <v>11</v>
-      </c>
       <c r="R9" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="S9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="T9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="S9" s="12" t="s">
+      <c r="U9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="T9" s="12" t="s">
+      <c r="V9" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="U9" s="12" t="s">
+      <c r="W9" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="V9" s="12" t="s">
+      <c r="X9" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="W9" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="X9" s="12" t="s">
-        <v>11</v>
-      </c>
       <c r="Y9" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="Z9" s="12" t="s">
+      <c r="AB9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="AA9" s="12" t="s">
+      <c r="AC9" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="AB9" s="12" t="s">
+      <c r="AD9" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="AC9" s="12" t="s">
+      <c r="AE9" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="AD9" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE9" s="12" t="s">
-        <v>11</v>
-      </c>
       <c r="AF9" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG9" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH9" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="AG9" s="13" t="s">
+      <c r="AI9" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="AH9" s="13" t="s">
+      <c r="AJ9" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="AI9" s="13" t="s">
+      <c r="AK9" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="AJ9" s="13" t="s">
+      <c r="AL9" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="AK9" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="AL9" s="13" t="s">
-        <v>11</v>
-      </c>
       <c r="AM9" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN9" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO9" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="AN9" s="13" t="s">
+      <c r="AP9" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="AO9" s="13" t="s">
+      <c r="AQ9" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="AP9" s="13" t="s">
+      <c r="AR9" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="AQ9" s="13" t="s">
+      <c r="AS9" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="AR9" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="AS9" s="13" t="s">
-        <v>11</v>
-      </c>
       <c r="AT9" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU9" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="AV9" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="AU9" s="13" t="s">
+      <c r="AW9" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="AV9" s="13" t="s">
+      <c r="AX9" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="AW9" s="13" t="s">
+      <c r="AY9" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="AX9" s="13" t="s">
+      <c r="AZ9" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="AY9" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="AZ9" s="13" t="s">
-        <v>11</v>
-      </c>
       <c r="BA9" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB9" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="BC9" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="BB9" s="13" t="s">
+      <c r="BD9" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="BC9" s="13" t="s">
+      <c r="BE9" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="BD9" s="13" t="s">
+      <c r="BF9" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="BE9" s="13" t="s">
+      <c r="BG9" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="BF9" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="BG9" s="13" t="s">
-        <v>11</v>
-      </c>
       <c r="BH9" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="BI9" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="BJ9" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="BI9" s="13" t="s">
+      <c r="BK9" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="BJ9" s="13" t="s">
+      <c r="BL9" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="BK9" s="13" t="s">
+      <c r="BM9" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="BL9" s="13" t="s">
+      <c r="BN9" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="BM9" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="BN9" s="13" t="s">
-        <v>11</v>
-      </c>
       <c r="BO9" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="BP9" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="BQ9" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="BP9" s="13" t="s">
+      <c r="BR9" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="BQ9" s="13" t="s">
+      <c r="BS9" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="BR9" s="13" t="s">
+      <c r="BT9" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="BS9" s="13" t="s">
+      <c r="BU9" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="BT9" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="BU9" s="13" t="s">
-        <v>11</v>
-      </c>
       <c r="BV9" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="BW9" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="BX9" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="BW9" s="13" t="s">
+      <c r="BY9" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="BX9" s="13" t="s">
+      <c r="BZ9" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="BY9" s="13" t="s">
+      <c r="CA9" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="BZ9" s="13" t="s">
+      <c r="CB9" s="14" t="s">
         <v>9</v>
-      </c>
-      <c r="CA9" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="CB9" s="14" t="s">
-        <v>11</v>
       </c>
       <c r="CC9" s="9"/>
     </row>
     <row r="10" spans="2:81" x14ac:dyDescent="0.25">
-      <c r="B10" s="79"/>
-      <c r="C10" s="82"/>
-      <c r="D10" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="71"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="72"/>
-      <c r="K10" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="71"/>
-      <c r="M10" s="72"/>
-      <c r="N10" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="O10" s="71"/>
-      <c r="P10" s="71"/>
-      <c r="Q10" s="72"/>
-      <c r="R10" s="74" t="s">
-        <v>12</v>
-      </c>
-      <c r="S10" s="74"/>
-      <c r="T10" s="74"/>
-      <c r="U10" s="74" t="s">
-        <v>13</v>
-      </c>
-      <c r="V10" s="74"/>
-      <c r="W10" s="70"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="77" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="78"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="78"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="79"/>
+      <c r="K10" s="77" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" s="78"/>
+      <c r="M10" s="79"/>
+      <c r="N10" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="O10" s="78"/>
+      <c r="P10" s="78"/>
+      <c r="Q10" s="79"/>
+      <c r="R10" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="S10" s="80"/>
+      <c r="T10" s="80"/>
+      <c r="U10" s="80" t="s">
+        <v>11</v>
+      </c>
+      <c r="V10" s="80"/>
+      <c r="W10" s="77"/>
       <c r="X10" s="15"/>
-      <c r="Y10" s="74" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z10" s="74"/>
-      <c r="AA10" s="74"/>
-      <c r="AB10" s="74" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC10" s="74"/>
-      <c r="AD10" s="70"/>
+      <c r="Y10" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z10" s="80"/>
+      <c r="AA10" s="80"/>
+      <c r="AB10" s="80" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC10" s="80"/>
+      <c r="AD10" s="77"/>
       <c r="AE10" s="15"/>
-      <c r="AF10" s="64" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG10" s="64"/>
-      <c r="AH10" s="64"/>
-      <c r="AI10" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="AJ10" s="64"/>
-      <c r="AK10" s="65"/>
+      <c r="AF10" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG10" s="81"/>
+      <c r="AH10" s="81"/>
+      <c r="AI10" s="81" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ10" s="81"/>
+      <c r="AK10" s="82"/>
       <c r="AL10" s="16"/>
-      <c r="AM10" s="64" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN10" s="64"/>
-      <c r="AO10" s="64"/>
-      <c r="AP10" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="AQ10" s="64"/>
-      <c r="AR10" s="65"/>
+      <c r="AM10" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN10" s="81"/>
+      <c r="AO10" s="81"/>
+      <c r="AP10" s="81" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ10" s="81"/>
+      <c r="AR10" s="82"/>
       <c r="AS10" s="16"/>
-      <c r="AT10" s="64" t="s">
-        <v>12</v>
-      </c>
-      <c r="AU10" s="64"/>
-      <c r="AV10" s="64"/>
-      <c r="AW10" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="AX10" s="64"/>
-      <c r="AY10" s="65"/>
+      <c r="AT10" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU10" s="81"/>
+      <c r="AV10" s="81"/>
+      <c r="AW10" s="81" t="s">
+        <v>11</v>
+      </c>
+      <c r="AX10" s="81"/>
+      <c r="AY10" s="82"/>
       <c r="AZ10" s="17"/>
-      <c r="BA10" s="63" t="s">
-        <v>12</v>
-      </c>
-      <c r="BB10" s="64"/>
-      <c r="BC10" s="64"/>
-      <c r="BD10" s="65" t="s">
-        <v>13</v>
-      </c>
-      <c r="BE10" s="66"/>
-      <c r="BF10" s="66"/>
-      <c r="BG10" s="66"/>
-      <c r="BH10" s="63" t="s">
-        <v>12</v>
-      </c>
-      <c r="BI10" s="64"/>
-      <c r="BJ10" s="64"/>
-      <c r="BK10" s="65" t="s">
-        <v>13</v>
-      </c>
-      <c r="BL10" s="66"/>
-      <c r="BM10" s="66"/>
-      <c r="BN10" s="66"/>
-      <c r="BO10" s="63" t="s">
-        <v>12</v>
-      </c>
-      <c r="BP10" s="64"/>
-      <c r="BQ10" s="64"/>
-      <c r="BR10" s="65" t="s">
-        <v>13</v>
-      </c>
-      <c r="BS10" s="66"/>
-      <c r="BT10" s="66"/>
-      <c r="BU10" s="66"/>
-      <c r="BV10" s="63" t="s">
-        <v>12</v>
-      </c>
-      <c r="BW10" s="64"/>
-      <c r="BX10" s="64"/>
-      <c r="BY10" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="BZ10" s="64"/>
-      <c r="CA10" s="65"/>
+      <c r="BA10" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="BB10" s="81"/>
+      <c r="BC10" s="81"/>
+      <c r="BD10" s="82" t="s">
+        <v>11</v>
+      </c>
+      <c r="BE10" s="83"/>
+      <c r="BF10" s="83"/>
+      <c r="BG10" s="83"/>
+      <c r="BH10" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI10" s="81"/>
+      <c r="BJ10" s="81"/>
+      <c r="BK10" s="82" t="s">
+        <v>11</v>
+      </c>
+      <c r="BL10" s="83"/>
+      <c r="BM10" s="83"/>
+      <c r="BN10" s="83"/>
+      <c r="BO10" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="BP10" s="81"/>
+      <c r="BQ10" s="81"/>
+      <c r="BR10" s="82" t="s">
+        <v>11</v>
+      </c>
+      <c r="BS10" s="83"/>
+      <c r="BT10" s="83"/>
+      <c r="BU10" s="83"/>
+      <c r="BV10" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="BW10" s="81"/>
+      <c r="BX10" s="81"/>
+      <c r="BY10" s="81" t="s">
+        <v>11</v>
+      </c>
+      <c r="BZ10" s="81"/>
+      <c r="CA10" s="82"/>
       <c r="CB10" s="9"/>
       <c r="CC10" s="9"/>
     </row>
     <row r="11" spans="2:81" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C11" s="18">
         <v>1</v>
@@ -2126,12 +2124,12 @@
       </c>
       <c r="CC11" s="9"/>
     </row>
-    <row r="12" spans="2:81" s="87" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="86">
+    <row r="12" spans="2:81" s="64" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="63">
         <v>101</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D12" s="22">
         <v>12488</v>
@@ -2371,7 +2369,7 @@
         <v>102</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D13" s="22">
         <v>5160</v>
@@ -2611,7 +2609,7 @@
         <v>103</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D14" s="22">
         <v>10451</v>
@@ -2851,7 +2849,7 @@
         <v>151</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D15" s="22">
         <v>3538</v>
@@ -3091,7 +3089,7 @@
         <v>153</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D16" s="22">
         <v>3560</v>
@@ -3331,7 +3329,7 @@
         <v>154</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D17" s="22">
         <v>1789</v>
@@ -3571,7 +3569,7 @@
         <v>155</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D18" s="22">
         <v>3665</v>
@@ -3811,7 +3809,7 @@
         <v>157</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D19" s="22">
         <v>3683</v>
@@ -4051,7 +4049,7 @@
         <v>158</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D20" s="22">
         <v>1670</v>
@@ -4291,7 +4289,7 @@
         <v>159</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D21" s="22">
         <v>11034</v>
@@ -4531,7 +4529,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D22" s="37">
         <v>57038</v>
@@ -4771,7 +4769,7 @@
         <v>241</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D23" s="22">
         <v>67790</v>
@@ -5011,7 +5009,7 @@
         <v>241001</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D24" s="22">
         <v>41541</v>
@@ -5251,7 +5249,7 @@
         <v>241999</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D25" s="22">
         <v>26249</v>
@@ -5491,7 +5489,7 @@
         <v>251</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D26" s="22">
         <v>7577</v>
@@ -5731,7 +5729,7 @@
         <v>252</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D27" s="22">
         <v>4537</v>
@@ -5971,7 +5969,7 @@
         <v>254</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D28" s="22">
         <v>7157</v>
@@ -6211,7 +6209,7 @@
         <v>255</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D29" s="22">
         <v>1610</v>
@@ -6451,7 +6449,7 @@
         <v>256</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D30" s="22">
         <v>4689</v>
@@ -6691,7 +6689,7 @@
         <v>257</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D31" s="22">
         <v>4345</v>
@@ -6931,7 +6929,7 @@
         <v>2</v>
       </c>
       <c r="C32" s="35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D32" s="37">
         <v>97705</v>
@@ -7171,7 +7169,7 @@
         <v>351</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D33" s="22">
         <v>4503</v>
@@ -7411,7 +7409,7 @@
         <v>352</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D34" s="22">
         <v>5168</v>
@@ -7651,7 +7649,7 @@
         <v>353</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D35" s="22">
         <v>10372</v>
@@ -7891,7 +7889,7 @@
         <v>354</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D36" s="22">
         <v>843</v>
@@ -8119,10 +8117,10 @@
         <v>32.911392405063289</v>
       </c>
       <c r="CA36" s="31" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="CB36" s="26" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="CC36" s="9"/>
     </row>
@@ -8131,7 +8129,7 @@
         <v>355</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D37" s="22">
         <v>4097</v>
@@ -8371,7 +8369,7 @@
         <v>356</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D38" s="22">
         <v>2233</v>
@@ -8611,7 +8609,7 @@
         <v>357</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D39" s="22">
         <v>4577</v>
@@ -8851,7 +8849,7 @@
         <v>358</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D40" s="22">
         <v>4621</v>
@@ -9091,7 +9089,7 @@
         <v>359</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D41" s="22">
         <v>6264</v>
@@ -9331,7 +9329,7 @@
         <v>360</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D42" s="22">
         <v>1937</v>
@@ -9571,7 +9569,7 @@
         <v>361</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D43" s="22">
         <v>6718</v>
@@ -9811,7 +9809,7 @@
         <v>3</v>
       </c>
       <c r="C44" s="35" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D44" s="37">
         <v>51333</v>
@@ -10051,7 +10049,7 @@
         <v>401</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D45" s="22">
         <v>2570</v>
@@ -10291,7 +10289,7 @@
         <v>402</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D46" s="22">
         <v>1965</v>
@@ -10531,7 +10529,7 @@
         <v>403</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D47" s="22">
         <v>6798</v>
@@ -10771,7 +10769,7 @@
         <v>404</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D48" s="22">
         <v>9858</v>
@@ -11011,7 +11009,7 @@
         <v>405</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D49" s="22">
         <v>2123</v>
@@ -11251,7 +11249,7 @@
         <v>451</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D50" s="22">
         <v>4674</v>
@@ -11491,7 +11489,7 @@
         <v>452</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D51" s="22">
         <v>4425</v>
@@ -11731,7 +11729,7 @@
         <v>453</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D52" s="22">
         <v>12765</v>
@@ -11971,7 +11969,7 @@
         <v>454</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D53" s="22">
         <v>16917</v>
@@ -12211,7 +12209,7 @@
         <v>455</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D54" s="22">
         <v>1677</v>
@@ -12451,7 +12449,7 @@
         <v>456</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D55" s="22">
         <v>6295</v>
@@ -12691,7 +12689,7 @@
         <v>457</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D56" s="22">
         <v>4075</v>
@@ -12931,7 +12929,7 @@
         <v>458</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D57" s="22">
         <v>5979</v>
@@ -13171,7 +13169,7 @@
         <v>459</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D58" s="22">
         <v>16016</v>
@@ -13411,7 +13409,7 @@
         <v>460</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D59" s="22">
         <v>12100</v>
@@ -13651,7 +13649,7 @@
         <v>461</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D60" s="22">
         <v>2704</v>
@@ -13891,7 +13889,7 @@
         <v>462</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D61" s="22">
         <v>998</v>
@@ -14098,10 +14096,10 @@
         <v>17.480719794344473</v>
       </c>
       <c r="BT61" s="31" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="BU61" s="31" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="BV61" s="30">
         <v>293</v>
@@ -14116,13 +14114,13 @@
         <v>5.4607508532423212</v>
       </c>
       <c r="BZ61" s="31" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="CA61" s="31" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="CB61" s="26" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="CC61" s="9"/>
     </row>
@@ -14131,7 +14129,7 @@
         <v>4</v>
       </c>
       <c r="C62" s="35" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D62" s="37">
         <v>111939</v>
@@ -14371,7 +14369,7 @@
         <v>0</v>
       </c>
       <c r="C63" s="35" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D63" s="37">
         <v>318015</v>
@@ -14681,20 +14679,20 @@
       <c r="BV64" s="50"/>
     </row>
     <row r="65" spans="3:52" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C65" s="67" t="s">
-        <v>53</v>
-      </c>
-      <c r="D65" s="67"/>
-      <c r="E65" s="67"/>
-      <c r="F65" s="67"/>
-      <c r="G65" s="67"/>
-      <c r="H65" s="67"/>
-      <c r="I65" s="67"/>
-      <c r="J65" s="67"/>
-      <c r="K65" s="67"/>
-      <c r="L65" s="67"/>
-      <c r="M65" s="67"/>
-      <c r="N65" s="67"/>
+      <c r="C65" s="85" t="s">
+        <v>51</v>
+      </c>
+      <c r="D65" s="85"/>
+      <c r="E65" s="85"/>
+      <c r="F65" s="85"/>
+      <c r="G65" s="85"/>
+      <c r="H65" s="85"/>
+      <c r="I65" s="85"/>
+      <c r="J65" s="85"/>
+      <c r="K65" s="85"/>
+      <c r="L65" s="85"/>
+      <c r="M65" s="85"/>
+      <c r="N65" s="85"/>
       <c r="O65" s="51"/>
       <c r="P65" s="51"/>
       <c r="Q65" s="51"/>
@@ -14788,7 +14786,7 @@
     </row>
     <row r="67" spans="3:52" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C67" s="57" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D67" s="57"/>
       <c r="E67" s="57"/>
@@ -14894,26 +14892,68 @@
     </row>
     <row r="69" spans="3:52" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C69" s="20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="70" spans="3:52" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C70" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="71" spans="3:52" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C71" s="20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="72" spans="3:52" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C72" s="60" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="BO10:BQ10"/>
+    <mergeCell ref="BR10:BU10"/>
+    <mergeCell ref="C65:N65"/>
+    <mergeCell ref="BV7:CB7"/>
+    <mergeCell ref="AW10:AY10"/>
+    <mergeCell ref="BY10:CA10"/>
+    <mergeCell ref="N10:Q10"/>
+    <mergeCell ref="BV8:BX8"/>
+    <mergeCell ref="BV10:BX10"/>
+    <mergeCell ref="BY8:CB8"/>
+    <mergeCell ref="AT10:AV10"/>
+    <mergeCell ref="BA10:BC10"/>
+    <mergeCell ref="BD10:BG10"/>
+    <mergeCell ref="BH10:BJ10"/>
+    <mergeCell ref="BK10:BN10"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="AB10:AD10"/>
+    <mergeCell ref="AF10:AH10"/>
+    <mergeCell ref="AI10:AK10"/>
+    <mergeCell ref="AM10:AO10"/>
+    <mergeCell ref="AP10:AR10"/>
+    <mergeCell ref="BH8:BJ8"/>
+    <mergeCell ref="BK8:BN8"/>
+    <mergeCell ref="BO8:BQ8"/>
+    <mergeCell ref="BR8:BU8"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="R10:T10"/>
+    <mergeCell ref="U10:W10"/>
+    <mergeCell ref="AM8:AO8"/>
+    <mergeCell ref="AP8:AS8"/>
+    <mergeCell ref="AT8:AV8"/>
+    <mergeCell ref="AW8:AZ8"/>
+    <mergeCell ref="BA8:BC8"/>
+    <mergeCell ref="BD8:BG8"/>
+    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="U8:X8"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="AB8:AE8"/>
+    <mergeCell ref="AF8:AH8"/>
+    <mergeCell ref="AI8:AL8"/>
     <mergeCell ref="BO7:BU7"/>
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="C7:C10"/>
@@ -14930,48 +14970,6 @@
     <mergeCell ref="AT7:AZ7"/>
     <mergeCell ref="BA7:BG7"/>
     <mergeCell ref="BH7:BN7"/>
-    <mergeCell ref="U8:X8"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="AB8:AE8"/>
-    <mergeCell ref="AF8:AH8"/>
-    <mergeCell ref="AI8:AL8"/>
-    <mergeCell ref="BH8:BJ8"/>
-    <mergeCell ref="BK8:BN8"/>
-    <mergeCell ref="BO8:BQ8"/>
-    <mergeCell ref="BR8:BU8"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="R10:T10"/>
-    <mergeCell ref="U10:W10"/>
-    <mergeCell ref="AM8:AO8"/>
-    <mergeCell ref="AP8:AS8"/>
-    <mergeCell ref="AT8:AV8"/>
-    <mergeCell ref="AW8:AZ8"/>
-    <mergeCell ref="BA8:BC8"/>
-    <mergeCell ref="BD8:BG8"/>
-    <mergeCell ref="R8:T8"/>
-    <mergeCell ref="AB10:AD10"/>
-    <mergeCell ref="AF10:AH10"/>
-    <mergeCell ref="AI10:AK10"/>
-    <mergeCell ref="AM10:AO10"/>
-    <mergeCell ref="AP10:AR10"/>
-    <mergeCell ref="BO10:BQ10"/>
-    <mergeCell ref="BR10:BU10"/>
-    <mergeCell ref="C65:N65"/>
-    <mergeCell ref="BV7:CB7"/>
-    <mergeCell ref="AW10:AY10"/>
-    <mergeCell ref="BY10:CA10"/>
-    <mergeCell ref="N10:Q10"/>
-    <mergeCell ref="BV8:BX8"/>
-    <mergeCell ref="BV10:BX10"/>
-    <mergeCell ref="BY8:CB8"/>
-    <mergeCell ref="AT10:AV10"/>
-    <mergeCell ref="BA10:BC10"/>
-    <mergeCell ref="BD10:BG10"/>
-    <mergeCell ref="BH10:BJ10"/>
-    <mergeCell ref="BK10:BN10"/>
-    <mergeCell ref="Y10:AA10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C72" r:id="rId1" xr:uid="{DAE03A97-E186-4935-BEB9-657F6757C32F}"/>
